--- a/src/main/java/selenium_framework/test_cases/OSPOS_Automation_Test_Case.xlsx
+++ b/src/main/java/selenium_framework/test_cases/OSPOS_Automation_Test_Case.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazmul.islam/Desktop/Personal/HyperTech/hypertech-automation/src/main/java/framework/keyword_driven/test_cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazmul.islam/Desktop/Personal/HyperTech/ht-selenium-framework/src/main/java/selenium_framework/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2899A0-92BC-1249-8ECF-622BC9C25C5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1562A-97B3-F744-B8AE-7639021CF098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TS-1" sheetId="1" r:id="rId1"/>
+    <sheet name="TS" sheetId="1" r:id="rId1"/>
     <sheet name="TC-1" sheetId="2" r:id="rId2"/>
     <sheet name="TC-2" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>TSID</t>
   </si>
@@ -180,22 +180,17 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>no such element: Unable to locate element: {"method":"css selector","selector":"*[name='username1']"}
-  (Session info: chrome=88.0.4324.192)
+    <t>Cannot locate an element using name=username1
 For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'LBURmacK1MXJGH8', ip: '192.168.1.145', os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.16', java.version: '1.8.0_202'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 88.0.4324.192, chrome: {chromedriverVersion: 88.0.4324.96 (68dba2d8a0b14..., userDataDir: /var/folders/ys/ync08dys1ml...}, goog:chromeOptions: {debuggerAddress: localhost:54066}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: MAC, platformName: MAC, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: cc7929660729ae1463b49b43056eca75
-*** Element info: {Using=name, value=username1}</t>
+Driver info: driver.version: RemoteWebDriver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -504,13 +499,13 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -608,16 +603,16 @@
   </sheetPr>
   <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3591,10 +3586,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="24.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/main/java/selenium_framework/test_cases/OSPOS_Automation_Test_Case.xlsx
+++ b/src/main/java/selenium_framework/test_cases/OSPOS_Automation_Test_Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazmul.islam/Desktop/Personal/HyperTech/ht-selenium-framework/src/main/java/selenium_framework/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD1562A-97B3-F744-B8AE-7639021CF098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA52F6CB-DF04-904A-86CF-B8B2AFB93481}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>TSID</t>
   </si>
@@ -171,20 +171,7 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
     <t>username1</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Cannot locate an element using name=username1
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'LBURmacK1MXJGH8', ip: '192.168.1.145', os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.16', java.version: '1.8.0_202'
-Driver info: driver.version: RemoteWebDriver</t>
   </si>
 </sst>
 </file>
@@ -202,25 +189,30 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -500,7 +492,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -588,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +596,7 @@
   <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -721,16 +713,10 @@
         <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -749,9 +735,6 @@
       </c>
       <c r="F5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -3582,7 +3565,9 @@
   </sheetPr>
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
